--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_beg.xlsx
@@ -964,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Is that an order, “Second” Lieutenant Hoederer?
+    <t xml:space="preserve">[name="Ines"]  Is that an order, 'Second' Lieutenant Hoederer?
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  She’s an “experienced” Sarkaz, and I may need a local guide when it’s time to bounce.
+    <t xml:space="preserve">[name="Hoederer"]  She’s an 'experienced' Sarkaz, and I may need a local guide when it’s time to bounce.
 </t>
   </si>
   <si>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  —“W.”
+    <t xml:space="preserve">[name="Hoederer"]  —'W.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_beg.xlsx
@@ -840,19 +840,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve reached the target destination. I have visual confirmation of the smoke signal’s coordinates.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...It’s been a while since our last fight with the other mercenaries. We’ve taken some losses.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But they hid plenty of supplies in the underground bunker. We won’t come back empty-handed.
+    <t xml:space="preserve">It's me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've reached the target destination. I have visual confirmation of the smoke signal's coordinates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...It's been a while since our last fight with the other mercenaries. We've taken some losses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But they hid plenty of supplies in the underground bunker. We won't come back empty-handed.
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’ll catch up soon.
+    <t xml:space="preserve">I'll catch up soon.
 </t>
   </si>
   <si>
@@ -876,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  You’re talking like it was hell on earth out there, but you look perfectly fine to me.
+    <t xml:space="preserve">[name="Ines"]  You're talking like it was hell on earth out there, but you look perfectly fine to me.
 </t>
   </si>
   <si>
@@ -884,15 +884,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Well, it’s not like you had to go out of your way to leave camp to pick us up. Who asked you to be such a worrywart?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  I don’t give a shit about anyone. Quit projecting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  If W hadn’t stayed behind to create an opening for us, none of us would’ve made it out.
+    <t xml:space="preserve">[name="Hoederer"]  Well, it's not like you had to go out of your way to leave camp to pick us up. Who asked you to be such a worrywart?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  I don't give a shit about anyone. Quit projecting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  If W hadn't stayed behind to create an opening for us, none of us would've made it out.
 </t>
   </si>
   <si>
@@ -912,11 +912,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Yeah. If only he made it back to camp alive. His kill count was well past mine. He would’ve come out as top merc, easy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Forget it, no point talking about that stuff now. At least he’s earned his rest.
+    <t xml:space="preserve">[name="Hoederer"]  Yeah. If only he made it back to camp alive. His kill count was well past mine. He would've come out as top merc, easy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Forget it, no point talking about that stuff now. At least he's earned his rest.
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Impossible. We can’t risk exposing ourselves like that. Don’t want to get caught out.
+    <t xml:space="preserve">[name="Hoederer"]  Impossible. We can't risk exposing ourselves like that. Don't want to get caught out.
 </t>
   </si>
   <si>
@@ -932,11 +932,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  He had a bunch of loot on him. That’s all I care about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  It wasn’t that much. Some of the other guys brought in bigger hauls.
+    <t xml:space="preserve">[name="Ines"]  He had a bunch of loot on him. That's all I care about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  It wasn't that much. Some of the other guys brought in bigger hauls.
 </t>
   </si>
   <si>
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  We can sit around and commiserate later. We’d better get out of here before sunset if we don’t want to be the center of attention.
+    <t xml:space="preserve">[name="Hoederer"]  We can sit around and commiserate later. We'd better get out of here before sunset if we don't want to be the center of attention.
 </t>
   </si>
   <si>
@@ -968,11 +968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...We’ve lost contact with the other squads. As of right now, I’m your commanding officer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  We’re the same rank.
+    <t xml:space="preserve">[name="Hoederer"]  ...We've lost contact with the other squads. As of right now, I'm your commanding officer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  We're the same rank.
 </t>
   </si>
   <si>
@@ -980,15 +980,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...Ines, let’s hurry back to the rendezvous point. Then we can contact the client again to renegotiate our deal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  That’s a suggestion, not an order. All right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  How much you think we can milk W’s death for?
+    <t xml:space="preserve">[name="Hoederer"]  ...Ines, let's hurry back to the rendezvous point. Then we can contact the client again to renegotiate our deal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  That's a suggestion, not an order. All right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  How much you think we can milk W's death for?
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  At least... his death won’t be in vain.
+    <t xml:space="preserve">[name="Ines"]  At least... his death won't be in vain.
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Someone’s coming. Three o’clock. Not one of ours.
+    <t xml:space="preserve">[name="Ines"]  Someone's coming. Three o'clock. Not one of ours.
 </t>
   </si>
   <si>
@@ -1032,7 +1032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  No, wait... You have W’s gun and knife in your hands...
+    <t xml:space="preserve">[name="Ines"]  No, wait... You have W's gun and knife in your hands...
 </t>
   </si>
   <si>
@@ -1056,15 +1056,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  We haven’t exactly been dragging our feet, but she’s kept up with us purely through her own skills, even after grabbing W’s gear.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  She’s an 'experienced' Sarkaz, and I may need a local guide when it’s time to bounce.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  —Are you insane? Isn’t that all the more reason to kill her right here?
+    <t xml:space="preserve">[name="Hoederer"]  We haven't exactly been dragging our feet, but she's kept up with us purely through her own skills, even after grabbing W's gear.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  She's an 'experienced' Sarkaz, and I may need a local guide when it's time to bounce.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  —Are you insane? Isn't that all the more reason to kill her right here?
 </t>
   </si>
   <si>
@@ -1072,11 +1072,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I wouldn’t dare.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  What if she’s an assassin? What if she leads us straight into a trap?
+    <t xml:space="preserve">[name="Hoederer"]  I wouldn't dare.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  What if she's an assassin? What if she leads us straight into a trap?
 </t>
   </si>
   <si>
@@ -1088,19 +1088,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...There’s one right in front of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You’ve got a huge bounty on your head. But for the time being, I’d rather it stay on your shoulders. Don’t get too full of yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I appreciate your diligence and frugality, but I’m not joking around either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  She took the risk to pick up W’s knife and gun, and had the stones to walk right up to us.
+    <t xml:space="preserve">[name="Ines"]  ...There's one right in front of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You've got a huge bounty on your head. But for the time being, I'd rather it stay on your shoulders. Don't get too full of yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I appreciate your diligence and frugality, but I'm not joking around either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  She took the risk to pick up W's knife and gun, and had the stones to walk right up to us.
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Yeah, that’s the difference between you and me.
+    <t xml:space="preserve">[name="Hoederer"]  Yeah, that's the difference between you and me.
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  An interesting display of good will, wouldn’t you agree?
+    <t xml:space="preserve">[name="Hoederer"]  An interesting display of good will, wouldn't you agree?
 </t>
   </si>
   <si>
@@ -1132,11 +1132,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  This war has thinned out our ranks. We could recruit some more Sarkaz, just as mysterious as her, but I’d rather hand-pick someone myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  But, she’s an outsider. Our ways don’t apply to—
+    <t xml:space="preserve">[name="Hoederer"]  This war has thinned out our ranks. We could recruit some more Sarkaz, just as mysterious as her, but I'd rather hand-pick someone myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  But, she's an outsider. Our ways don't apply to—
 </t>
   </si>
   <si>
@@ -1144,15 +1144,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I’m leaving in ten minutes. I don’t care how many come with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  But if you’re gonna give me any more corpses to deal with, I don’t care whose, you better make it quick.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Heh. Quite the impatient one, aren’t you.
+    <t xml:space="preserve">[name="Ines"]  I'm leaving in ten minutes. I don't care how many come with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  But if you're gonna give me any more corpses to deal with, I don't care whose, you better make it quick.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Heh. Quite the impatient one, aren't you.
 </t>
   </si>
   <si>
@@ -1160,11 +1160,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  You’re holding our fallen comrade’s relics there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Put them down, and you can walk out of here alive. You’ll have to find somewhere else to die, but at least you’ll buy yourself some extra time.
+    <t xml:space="preserve">[name="Hoederer"]  You're holding our fallen comrade's relics there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Put them down, and you can walk out of here alive. You'll have to find somewhere else to die, but at least you'll buy yourself some extra time.
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Disheveled Sarkaz Woman"]  ...I don’t think I ever had a choice. The second I turn around, you draw your blade and cut me down.
+    <t xml:space="preserve">[name="Disheveled Sarkaz Woman"]  ...I don't think I ever had a choice. The second I turn around, you draw your blade and cut me down.
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  In that case, prepare to evacuate first. We’ll talk details later.
+    <t xml:space="preserve">[name="Hoederer"]  In that case, prepare to evacuate first. We'll talk details later.
 </t>
   </si>
   <si>
